--- a/keyword.xlsx
+++ b/keyword.xlsx
@@ -1043,13 +1043,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.88000011" customWidth="1" style="1" min="2" max="2"/>
   </cols>
@@ -1070,6 +1070,16 @@
           <t>순위</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>순위</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -1082,9 +1092,19 @@
           <t>영어원서특화 낭독원</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="0" t="inlineStr">
         <is>
           <t>61위</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64위</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1119,17 @@
           <t>영어원서특화 낭독원</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>55위</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>55위</t>
         </is>
@@ -1116,7 +1146,17 @@
           <t>영어원서특화 낭독원</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>순위없음</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
@@ -1133,9 +1173,19 @@
           <t>영어원서특화 낭독원</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>185위</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>190위</t>
         </is>
       </c>
     </row>
@@ -1150,9 +1200,19 @@
           <t>영어원서특화 낭독원</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>162위</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>163위</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1227,17 @@
           <t>영어원서특화 낭독원</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>4위</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>4위</t>
         </is>
@@ -1184,7 +1254,17 @@
           <t>영어원서특화 낭독원</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>순위없음</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
